--- a/exple3_P03558024_simple_output_example.xlsx
+++ b/exple3_P03558024_simple_output_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goe19\Documents\MNHN\ICEDIG\SPEC\DwC_examples_MS28\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BA19A2-EB25-4BBF-AA61-AF7D46258F39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70042F0-44A1-4866-9C96-4928A64EED0D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="1" xr2:uid="{942C4E94-D66A-4E6C-BA0A-CE4D87B8C8CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{942C4E94-D66A-4E6C-BA0A-CE4D87B8C8CB}"/>
   </bookViews>
   <sheets>
     <sheet name="occurence.txt" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -35,9 +35,6 @@
     <t>modified</t>
   </si>
   <si>
-    <t>occurenceID</t>
-  </si>
-  <si>
     <t>institutionCode</t>
   </si>
   <si>
@@ -53,12 +50,6 @@
     <t>fieldNumber</t>
   </si>
   <si>
-    <t>eventDateBeginning</t>
-  </si>
-  <si>
-    <t>eventDateEnding</t>
-  </si>
-  <si>
     <t>countryCode</t>
   </si>
   <si>
@@ -174,6 +165,12 @@
   </si>
   <si>
     <t>Thymus polytrichus A.Kern. ex Borbás</t>
+  </si>
+  <si>
+    <t>eventDate</t>
+  </si>
+  <si>
+    <t>occurrenceID</t>
   </si>
 </sst>
 </file>
@@ -526,15 +523,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2657DE2-CC3D-4721-A721-D207B1E0892F}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:U2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,127 +539,124 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -672,7 +666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17EF190-DC12-49E9-B73B-8F7077D07A74}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -684,27 +678,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -727,36 +721,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
